--- a/ExperimentalData/Feb8_data.xlsx
+++ b/ExperimentalData/Feb8_data.xlsx
@@ -1940,7 +1940,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
